--- a/Docs/Model/PlantillaDiseñoExperimental.xlsx
+++ b/Docs/Model/PlantillaDiseñoExperimental.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
-    <sheet name="SIMBOLOGIA" sheetId="7" r:id="rId2"/>
-    <sheet name="DP1_TR_01" sheetId="8" r:id="rId3"/>
-    <sheet name="DP1_TR_02" sheetId="11" r:id="rId4"/>
-    <sheet name="EXPERIMENTOS" sheetId="6" r:id="rId5"/>
-    <sheet name="DP2_TR_01" sheetId="12" r:id="rId6"/>
-    <sheet name="DP3_TR_01" sheetId="13" r:id="rId7"/>
+    <sheet name="DEFINICION" sheetId="14" r:id="rId2"/>
+    <sheet name="SIMBOLOGIA" sheetId="7" r:id="rId3"/>
+    <sheet name="DP_TR_01" sheetId="8" r:id="rId4"/>
+    <sheet name="DP_TR_02" sheetId="11" r:id="rId5"/>
+    <sheet name="EXPERIMENTOS" sheetId="6" r:id="rId6"/>
+    <sheet name="DP2_TR_01" sheetId="12" r:id="rId7"/>
+    <sheet name="DP3_TR_01" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="158">
   <si>
     <t>PLANTILLA DE DISEÑO EXPERIMENTAL</t>
   </si>
@@ -266,9 +267,6 @@
     <t>2 letras de la fase genérica,+ 1 dígito del número de fase + _ + 2 letras de la fase especíalizada + _ + consecutivo del número de repetición de 2 dígitos</t>
   </si>
   <si>
-    <t>DP1_TR_01</t>
-  </si>
-  <si>
     <t>Nombre de la tarea</t>
   </si>
   <si>
@@ -296,9 +294,6 @@
     <t>Tareas Especializadas</t>
   </si>
   <si>
-    <t>DP1_TR_02</t>
-  </si>
-  <si>
     <t>Variables dependientes:</t>
   </si>
   <si>
@@ -314,18 +309,9 @@
     <t>TR_03= Etiquetado de Textos</t>
   </si>
   <si>
-    <t>Diferencia que existe en tiempo y memoria al procesar los diferentes textos pdf de leyes ambientales los cuales contienen un diferente número de páginas y caracteres las cuales denota si el tiempo y memoria es el mismo mediante la librería pypdf2</t>
-  </si>
-  <si>
-    <t>Se transformaran 9 textos pdf de leyes ambientales, las cuales difieren en el número de páginas, asi como la medición de tiempo y memoria mediante el lenguaje Python, las cuales se utilizaran las distintas librerias NLTK y pypdf2. El número de repeticiones en cada librería experimentada fueron 18 veces en un hardware con memoria RAM de 8 GB. Disco duro de 500 GB. Procesador Intel Celeron Processor 1.60 Ghz x64. Windows 10 Home.</t>
-  </si>
-  <si>
     <t>Diferencias que existen conforme al experimento anterior</t>
   </si>
   <si>
-    <t>Se transformaran 9 textos pdf de leyes ambientales, las cuales difieren en el número de páginas, asi como la medición de tiempo y memoria mediante el lenguaje Python, las cuales se utilizaran las distintas librerias NLTK y pdfplumber. El número de repeticiones en cada librería experimentada fueron 18 veces en un hardware con memoria RAM de 8 GB. Disco duro de 500 GB. Procesador Intel Celeron Processor 1.60 Ghz x64. Windows 10 Home.</t>
-  </si>
-  <si>
     <t>DP3 Construccion de los datos</t>
   </si>
   <si>
@@ -338,152 +324,188 @@
     <t>Eliminacion de ruido, Quitar stopwords, paginas, logos, transformar a estructura json</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprobar si la experimentación realizada en un equipo local que se basa en experimentos diseñados (tareas genéricas/especializadas, documentos de ley, medición de recursos) es transferible a una instancia EC2 de AWS para la capa gratuita.
+    <t>Descripción corta de la tarea genérica o especializada a probar durante el experimento.</t>
+  </si>
+  <si>
+    <t>Es aquella que no depende de otra variable.</t>
+  </si>
+  <si>
+    <t>Es aquella cuyos valores dependen de los que tomen otras variables.</t>
+  </si>
+  <si>
+    <t>Son variables que no se manipulan pero pueden influir en el resultado de la investigación.</t>
+  </si>
+  <si>
+    <t>Las metas o resultados que se desean obtener a partir de la experimentación para probar la hipotesis.</t>
+  </si>
+  <si>
+    <t>Es el procedimiento llevado a cabo para apoyar, refutar o validar una hipotesis.</t>
+  </si>
+  <si>
+    <t>Resumen integral de los resultados la cual da una visión general del experimento y de si este alcanzo los resultados esperados</t>
+  </si>
+  <si>
+    <t>TR_01= Descripción del formato de ley (formato, hojas) y Transformación PDF a txt con cada herramienta seleccionada</t>
+  </si>
+  <si>
+    <t>Fecha en la que se ejecuta el experimento.</t>
+  </si>
+  <si>
+    <t>Suposición hecha a partir de los datos que sirve para iniciar la investigación y que debe ser probada a partir de la experimentación la cual se tendria que aceptar o rechazar.</t>
+  </si>
+  <si>
+    <t>Parametro Controlada:</t>
+  </si>
+  <si>
+    <t>Daños en el equipo de computo y tiempo de ejecución, bibliotecas</t>
+  </si>
+  <si>
+    <t>Parametro no controlado:</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Pdf de la ley, tarea a ejecutar y distribución entre tareas</t>
+  </si>
+  <si>
+    <t>Fecha en la que se programa el experimento.</t>
+  </si>
+  <si>
+    <t>FechaProg:</t>
+  </si>
+  <si>
+    <t>FechaExp:</t>
+  </si>
+  <si>
+    <t>Nombre del pdf:</t>
+  </si>
+  <si>
+    <t>Librerias:</t>
+  </si>
+  <si>
+    <t>Medición:</t>
+  </si>
+  <si>
+    <t>Tipo de Tarea:</t>
+  </si>
+  <si>
+    <t>Diseño Factorial:</t>
+  </si>
+  <si>
+    <t>Tipo de Diseño:</t>
+  </si>
+  <si>
+    <t>LGCC: Ley General de Cambio Climático.</t>
+  </si>
+  <si>
+    <t>Librerias</t>
+  </si>
+  <si>
+    <t>NLTK con pdfplumber</t>
+  </si>
+  <si>
+    <t>NLTK con PYPDF2</t>
+  </si>
+  <si>
+    <t>Medición</t>
+  </si>
+  <si>
+    <t>Tiempo y Memoria</t>
+  </si>
+  <si>
+    <t>Tipo de Diseño</t>
+  </si>
+  <si>
+    <t>Nombre del PDF</t>
+  </si>
+  <si>
+    <t>2 elevado a la 1= 2</t>
+  </si>
+  <si>
+    <t>DP4 Integracion de los datos</t>
+  </si>
+  <si>
+    <t>DP5 Formateo de los datos</t>
+  </si>
+  <si>
+    <t>TR_02=Eliminacion de ruido, quitar stopwords, paginas, logos, transformar a estructura json</t>
+  </si>
+  <si>
+    <t>DP3_TR_01</t>
+  </si>
+  <si>
+    <t>DP2_TR_01</t>
+  </si>
+  <si>
+    <t>Se refieren a variables o factores que contribuyen que son fijados o eliminados para poder identificar claramente la relación entre una variable independiente y una variable dependiente.</t>
+  </si>
+  <si>
+    <t>Nombre de los documentos pdf a experimentar.</t>
+  </si>
+  <si>
+    <t>Nombre de las librerias que se utilizaron en el experimento.</t>
+  </si>
+  <si>
+    <t>Tiempo o Memoria u ambos.</t>
+  </si>
+  <si>
+    <t>Factores elevados a la 1.</t>
+  </si>
+  <si>
+    <t>Tipo de diseño el cual es de tipo experimental.</t>
+  </si>
+  <si>
+    <t>DP_TR_01</t>
+  </si>
+  <si>
+    <t>Obtener datos que permitan analizar la diferencia entre la eficiencia de transformación de los documentos en pdf mediante las dos librerias con base en los recursos utilizados (memoria y tiempo)</t>
+  </si>
+  <si>
+    <t>Se medirá el tiempo y memoria utilizados en la transformación de 9 textos en formato pdf referentes a leyes ambientales, las cuales mediante dos distintas librerias difieren en el número de páginas mediante el lenguaje Python, las cuales se utilizaran las distintas librerias NLTK y pypdf2. El número de repeticiones en cada librería experimentada se llevaran a cabo 18 veces en un hardware con memoria RAM de 8 GB. Disco duro de 500 GB. Procesador Intel Celeron Processor 1.60 Ghz x64. Windows 10 Home.</t>
+  </si>
+  <si>
+    <t>Factorial</t>
+  </si>
+  <si>
+    <t>Pdf de la ley y tarea a ejecutar</t>
+  </si>
+  <si>
+    <t>Daños en el equipo de computo, tiempo de ejecución y bibliotecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La variación de tiempo y memoria para la transformación de pdf a txt depende del tamaño de documento, librería utilizada y del equipo de computo en el que se procesa.
 </t>
   </si>
   <si>
-    <t>Descripción corta de la tarea genérica o especializada a probar durante el experimento.</t>
-  </si>
-  <si>
-    <t>Es aquella que no depende de otra variable.</t>
-  </si>
-  <si>
-    <t>Es aquella cuyos valores dependen de los que tomen otras variables.</t>
-  </si>
-  <si>
-    <t>Son variables que no se manipulan pero pueden influir en el resultado de la investigación.</t>
-  </si>
-  <si>
-    <t>Las metas o resultados que se desean obtener a partir de la experimentación para probar la hipotesis.</t>
-  </si>
-  <si>
-    <t>Es el procedimiento llevado a cabo para apoyar, refutar o validar una hipotesis.</t>
-  </si>
-  <si>
-    <t>Resumen integral de los resultados la cual da una visión general del experimento y de si este alcanzo los resultados esperados</t>
-  </si>
-  <si>
-    <t>TR_03=Significado a los textos que contienen mediante un hiperenlace</t>
-  </si>
-  <si>
-    <t>TR_01= Descripción del formato de ley (formato, hojas) y Transformación PDF a txt con cada herramienta seleccionada</t>
-  </si>
-  <si>
-    <t>Fecha en la que se ejecuta el experimento.</t>
-  </si>
-  <si>
-    <t>Suposición hecha a partir de los datos que sirve para iniciar la investigación y que debe ser probada a partir de la experimentación la cual se tendria que aceptar o rechazar.</t>
-  </si>
-  <si>
-    <t>Parametro Controlada:</t>
-  </si>
-  <si>
-    <t>Daños en el equipo de computo y tiempo de ejecución, bibliotecas</t>
-  </si>
-  <si>
-    <t>Parametro no controlado:</t>
-  </si>
-  <si>
-    <t>Memoria</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Pdf de la ley, tarea a ejecutar y distribución entre tareas</t>
-  </si>
-  <si>
-    <t>Fecha en la que se programa el experimento.</t>
-  </si>
-  <si>
-    <t>FechaProg:</t>
-  </si>
-  <si>
-    <t>FechaExp:</t>
-  </si>
-  <si>
-    <t>Nombre del pdf:</t>
-  </si>
-  <si>
-    <t>Librerias:</t>
-  </si>
-  <si>
-    <t>Medición:</t>
-  </si>
-  <si>
-    <t>Tipo de Tarea:</t>
-  </si>
-  <si>
-    <t>Diseño Factorial:</t>
-  </si>
-  <si>
-    <t>Tipo de Diseño:</t>
-  </si>
-  <si>
-    <t>LGCC: Ley General de Cambio Climático.</t>
-  </si>
-  <si>
-    <t>Librerias</t>
-  </si>
-  <si>
-    <t>NLTK con pdfplumber</t>
-  </si>
-  <si>
-    <t>NLTK con PYPDF2</t>
-  </si>
-  <si>
-    <t>Medición</t>
-  </si>
-  <si>
-    <t>Tiempo y Memoria</t>
-  </si>
-  <si>
-    <t>Tipo de Diseño</t>
-  </si>
-  <si>
-    <t>Nombre del PDF</t>
-  </si>
-  <si>
-    <t>2 elevado a la 1= 2</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>DP4 Integracion de los datos</t>
-  </si>
-  <si>
-    <t>DP5 Formateo de los datos</t>
-  </si>
-  <si>
-    <t>TR_01= Transformación PDF a txt con cada herramienta seleccionada</t>
-  </si>
-  <si>
-    <t>TR_02=Eliminacion de ruido, quitar stopwords, paginas, logos, transformar a estructura json</t>
-  </si>
-  <si>
-    <t>DP3_TR_01</t>
-  </si>
-  <si>
-    <t>DP2_TR_01</t>
-  </si>
-  <si>
-    <t>Se refieren a variables o factores que contribuyen que son fijados o eliminados para poder identificar claramente la relación entre una variable independiente y una variable dependiente.</t>
-  </si>
-  <si>
-    <t>Nombre de los documentos pdf a experimentar.</t>
-  </si>
-  <si>
-    <t>Nombre de las librerias que se utilizaron en el experimento.</t>
-  </si>
-  <si>
-    <t>Tiempo o Memoria u ambos.</t>
-  </si>
-  <si>
-    <t>Factores elevados a la 1.</t>
-  </si>
-  <si>
-    <t>Tipo de diseño el cual es de tipo experimental.</t>
+    <t>DP_TR_02</t>
+  </si>
+  <si>
+    <t>Se medirá el tiempo y memoria utilizados en la transformación de 9 textos en formato pdf referentes a leyes ambientales, las cuales mediante dos distintas librerias difieren en el número de páginas mediante el lenguaje Python, las cuales se utilizaran las distintas librerias NLTK y pdfplumber. El número de repeticiones en cada librería experimentada se llevaran a cabo 18 veces en un hardware con memoria RAM de 8 GB. Disco duro de 500 GB. Procesador Intel Celeron Processor 1.60 Ghz x64. Windows 10 Home.</t>
+  </si>
+  <si>
+    <t>Se medirá el tiempo y memoria utilizados en la transformación de 9 textos en formato pdf referentes a leyes ambientales, las cuales mediante dos distintas librerias difieren en el número de páginas mediante el lenguaje Python, las cuales se utilizaran las distintas librerias. El número de repeticiones en cada librería experimentada se llevaran a cabo 18 veces en un hardware con memoria RAM de 8 GB. Disco duro de 500 GB. Procesador Intel Celeron Processor 1.60 Ghz x64. Windows 10 Home.</t>
+  </si>
+  <si>
+    <t>Transformación PDF a txt con cada herramienta seleccionada</t>
+  </si>
+  <si>
+    <t>Eliminacion de ruido, quitar stopwords, paginas, logos, transformar a estructura json</t>
+  </si>
+  <si>
+    <t>Significado a los textos que contienen mediante un hiperenlace</t>
+  </si>
+  <si>
+    <t>Etiquetado de Textos</t>
+  </si>
+  <si>
+    <t>Conversión texto plano a json</t>
+  </si>
+  <si>
+    <t>Las versiones utilizadas en la ejecución de la tarea de preprocesamiento (extracción de texto del archivo pdf) son Python 3.10, pdfplumber 0.1.2, pypdf2 2.10.3. En concreto, los problemas encontrados con el uso de NLTK fueron que sólo reconoce un número limitado de palabras vacías. Otro problema fue el preprocesamiento del texto en español, ya que las bibliotecas de Python trabajan con términos en inglés y existe un truncamiento de los mismos. En el caso de la eliminación de ruido, las bibliotecas anteriores no eliminan las cabeceras, pies de página o etiquetas de los archivos de texto. Sin embargo, las bibliotecas PyPDF2 y Pdfplumber para la extracción de pdf a txt demostraron ser adecuadas en los resultados. La Tabla muestra los resultados del tiempo de ejecución para la tarea de preprocesamiento de la extracción de texto. Y asi comprobar si la experimentación realizada en un equipo local que se basa en experimentos diseñados (tareas genéricas/especializadas, documentos de ley, medición de recursos) es transferible a una instancia EC2 de AWS para la capa gratuita.</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1195,48 +1217,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,39 +1241,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,9 +1277,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,15 +1287,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1351,18 +1307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1387,51 +1331,184 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,11 +2024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1499660736"/>
-        <c:axId val="-1499665088"/>
+        <c:axId val="-2090665680"/>
+        <c:axId val="-2090663504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1499660736"/>
+        <c:axId val="-2090665680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2071,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499665088"/>
+        <c:crossAx val="-2090663504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1499665088"/>
+        <c:axId val="-2090663504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2130,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499660736"/>
+        <c:crossAx val="-2090665680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,11 +2701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1258340432"/>
-        <c:axId val="-1258349680"/>
+        <c:axId val="-2090662416"/>
+        <c:axId val="-2121173488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1258340432"/>
+        <c:axId val="-2090662416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2748,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1258349680"/>
+        <c:crossAx val="-2121173488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2679,7 +2756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1258349680"/>
+        <c:axId val="-2121173488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2807,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1258340432"/>
+        <c:crossAx val="-2090662416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3308,11 +3385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1499666720"/>
-        <c:axId val="-1499664544"/>
+        <c:axId val="-2121172944"/>
+        <c:axId val="-1832308768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1499666720"/>
+        <c:axId val="-2121172944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3432,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499664544"/>
+        <c:crossAx val="-1832308768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3363,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1499664544"/>
+        <c:axId val="-1832308768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3491,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499666720"/>
+        <c:crossAx val="-2121172944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3985,11 +4062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1499662912"/>
-        <c:axId val="-1499662368"/>
+        <c:axId val="-1832314208"/>
+        <c:axId val="-1832310400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1499662912"/>
+        <c:axId val="-1832314208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,7 +4109,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499662368"/>
+        <c:crossAx val="-1832310400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4040,7 +4117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1499662368"/>
+        <c:axId val="-1832310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4168,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499662912"/>
+        <c:crossAx val="-1832314208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6372,7 +6449,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6415,7 +6492,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6458,7 +6535,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6494,7 +6571,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6814,8 +6891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:J43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6832,64 +6909,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="142"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
+      <c r="B4" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+        <v>114</v>
+      </c>
+      <c r="H4" s="146"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -6899,7 +6976,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="68" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6909,63 +6986,63 @@
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="80"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -6981,7 +7058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -7007,7 +7084,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -7033,7 +7110,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -7059,7 +7136,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -7085,7 +7162,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -7098,62 +7175,62 @@
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="80"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="80"/>
-    </row>
-    <row r="23" spans="1:10" s="97" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122" t="s">
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="138"/>
+    </row>
+    <row r="23" spans="1:10" s="81" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="102"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -7170,12 +7247,12 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="65" t="s">
         <v>16</v>
       </c>
@@ -7184,92 +7261,92 @@
       <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="122" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="121"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="80"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="138"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="80"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="122" t="s">
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="121"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="80"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="138"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="142"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -7296,328 +7373,244 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="142" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="147" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="146"/>
-      <c r="J40" s="148"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="152" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="153"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
     </row>
     <row r="43" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
     </row>
     <row r="44" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
     </row>
     <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
     </row>
     <row r="46" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="137" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
     </row>
     <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="74"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
     </row>
     <row r="48" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
     </row>
     <row r="49" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
     </row>
     <row r="50" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
     </row>
     <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="139" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
     </row>
     <row r="52" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
     </row>
     <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="139" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
     </row>
     <row r="54" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="139"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -7629,15 +7622,14 @@
       <c r="A57" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B50:J50"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:J3"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A27:J29"/>
@@ -7646,25 +7638,6 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B52:J52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7703,10 +7676,609 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="3.875" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="113"/>
+      <c r="J6" s="115"/>
+    </row>
+    <row r="7" spans="1:10" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="116"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="155"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+    </row>
+    <row r="22" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+    </row>
+    <row r="23" spans="1:10" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+    </row>
+    <row r="25" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="129"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$C$21:$C$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$C$14:$C$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:E7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$A$12:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:E6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7818,32 +8390,32 @@
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="130"/>
+        <v>85</v>
+      </c>
+      <c r="B11" s="104"/>
       <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="49"/>
       <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="49"/>
       <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" s="55"/>
     </row>
@@ -7851,7 +8423,7 @@
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D15" s="55"/>
     </row>
@@ -7859,7 +8431,7 @@
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="55"/>
     </row>
@@ -7867,7 +8439,7 @@
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="57" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -7875,7 +8447,7 @@
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="58" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -7886,137 +8458,137 @@
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="129"/>
+        <v>86</v>
+      </c>
+      <c r="B20" s="103"/>
     </row>
     <row r="21" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="59" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="60" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="61" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="102" t="s">
-        <v>130</v>
+      <c r="A25" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="159"/>
+      <c r="C25" s="84" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="100" t="s">
-        <v>132</v>
+      <c r="B26" s="89"/>
+      <c r="C26" s="82" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="101" t="s">
-        <v>131</v>
+      <c r="B27" s="89"/>
+      <c r="C27" s="83" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="88"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="102" t="s">
-        <v>133</v>
+      <c r="B29" s="89"/>
+      <c r="C29" s="84" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="100" t="s">
-        <v>118</v>
+      <c r="B30" s="89"/>
+      <c r="C30" s="82" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="100" t="s">
-        <v>117</v>
+      <c r="B31" s="89"/>
+      <c r="C31" s="82" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="101" t="s">
-        <v>134</v>
+      <c r="B32" s="89"/>
+      <c r="C32" s="83" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="106"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="88"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
+      <c r="A34" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="88"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>135</v>
+      <c r="A36" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>138</v>
+      <c r="A37" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8028,12 +8600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+      <selection activeCell="A29" sqref="A29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8050,176 +8622,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="85">
+      <c r="B4" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="146">
         <v>44810</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="96">
+      <c r="G5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="163">
         <v>44813</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="111" t="s">
+      <c r="B9" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="G9" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
@@ -8235,19 +8807,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+        <v>117</v>
+      </c>
+      <c r="B13" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
@@ -8263,19 +8835,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+        <v>118</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
@@ -8291,19 +8863,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
@@ -8319,101 +8891,101 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="111" t="s">
+      <c r="A22" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="114" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="139"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="139"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
@@ -8421,93 +8993,93 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="G25" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="139"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="122" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="121"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="122" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="80"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+    </row>
+    <row r="29" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
+    </row>
+    <row r="30" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="142"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
@@ -8703,27 +9275,27 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A29:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B6:J7"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H23:J23"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
@@ -8734,7 +9306,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SIMBOLOGIA!$A$26:$A$34</xm:f>
@@ -8761,12 +9333,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$26:$C$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:J13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>SIMBOLOGIA!$C$30:$C$32</xm:f>
           </x14:formula1>
           <xm:sqref>B15:J15 H23:J23</xm:sqref>
@@ -8776,12 +9342,6 @@
             <xm:f>SIMBOLOGIA!$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>B17:J17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>B19:J19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8795,12 +9355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8817,176 +9377,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="85">
+      <c r="B4" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="146">
         <v>44810</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="96">
+      <c r="G5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="163">
         <v>44813</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="111" t="s">
+      <c r="B9" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="G9" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
@@ -9002,19 +9562,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
@@ -9030,19 +9590,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+        <v>118</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
@@ -9058,19 +9618,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
@@ -9086,101 +9646,101 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="111" t="s">
+      <c r="A22" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="114" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="139"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="139"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
@@ -9188,93 +9748,93 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="67"/>
-      <c r="G25" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="G25" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="139"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="122" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="121"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="122" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="80"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+    </row>
+    <row r="29" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
+    </row>
+    <row r="30" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="142"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="172"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
@@ -9432,7 +9992,7 @@
       </c>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>66</v>
       </c>
@@ -9470,18 +10030,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="A8:J8"/>
@@ -9490,29 +10044,29 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A29:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SIMBOLOGIA!$A$21:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>G9:J9 B6:J7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>B19:J19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9525,12 +10079,6 @@
             <xm:f>SIMBOLOGIA!$C$30:$C$32</xm:f>
           </x14:formula1>
           <xm:sqref>B15:J15 H23:J23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$26:$C$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:J13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9562,7 +10110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -9582,14 +10130,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -9803,14 +10351,14 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10028,12 +10576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B17" sqref="B17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10050,176 +10598,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="85">
+      <c r="B4" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="146">
         <v>44810</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="96">
+      <c r="G5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="163">
         <v>44813</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="111" t="s">
+      <c r="B9" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="G9" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
@@ -10235,19 +10783,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+        <v>117</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
@@ -10263,19 +10809,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+        <v>118</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
@@ -10291,19 +10837,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
@@ -10319,101 +10865,99 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="111" t="s">
+      <c r="A22" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="114" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="139"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="139"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
@@ -10421,70 +10965,70 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="67"/>
-      <c r="G25" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="G25" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="139"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="122" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="121"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="122" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="80"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
@@ -10499,100 +11043,107 @@
       <c r="J30" s="46"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="134"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
       <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="134"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="71"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="134"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="71"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="134"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B15:J15"/>
@@ -10601,34 +11152,21 @@
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SIMBOLOGIA!$A$21:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>G9:J9 B6:J7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>B19:J19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10641,12 +11179,6 @@
             <xm:f>SIMBOLOGIA!$C$30:$C$32</xm:f>
           </x14:formula1>
           <xm:sqref>B15:J15 H23:J23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$26:$C$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:J13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10678,12 +11210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10700,549 +11232,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="85">
+      <c r="B4" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="146">
         <v>44810</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="96">
+      <c r="G5" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="163">
         <v>44813</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="111" t="s">
+      <c r="B9" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="G9" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="81" t="s">
+      <c r="A11" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+      <c r="A19" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="111" t="s">
+      <c r="A22" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="114" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="139"/>
+      <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="139"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="139"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="122" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="121"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="122" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="80"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="46"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="71"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="71"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="72"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="71"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="72"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="71"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B15:J15"/>
@@ -11251,11 +11774,11 @@
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J3"/>
@@ -11263,22 +11786,45 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="B6:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>SIMBOLOGIA!$A$21:$A$23</xm:f>
+            <xm:f>SIMBOLOGIA!$A$26:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:J9 B6:J7</xm:sqref>
+          <xm:sqref>B11:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$37</xm:f>
+            <xm:f>SIMBOLOGIA!$A$12:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B19:J19</xm:sqref>
+          <xm:sqref>B9:E9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$C$14:$C$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$C$21:$C$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>G10:J10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SIMBOLOGIA!$C$30:$C$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:J15 H23:J23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -11288,39 +11834,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$30:$C$32</xm:f>
+            <xm:f>SIMBOLOGIA!$A$21:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:J15 H23:J23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$26:$C$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:J13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$21:$C$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>G10:J10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$C$14:$C$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:E10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$A$12:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9:E9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SIMBOLOGIA!$A$26:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:J11</xm:sqref>
+          <xm:sqref>G9:J9 B6:J7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11329,15 +11845,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009A1E1B95FCFF794E8FD5F9AC1B5CEDE3" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c9ab8560357371ee267884700df84b21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ccdc0306-7309-4657-883f-bdd777972299" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37fa468e5dc457c36eaae26c67ae4780" ns2:_="">
     <xsd:import namespace="ccdc0306-7309-4657-883f-bdd777972299"/>
@@ -11475,15 +11982,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17E529-F833-42EC-B582-BE77C4947E5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD39D8EB-2586-40A9-BC90-98422CAC2786}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11499,4 +12007,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17E529-F833-42EC-B582-BE77C4947E5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>